--- a/biology/Zoologie/Glomeris/Glomeris.xlsx
+++ b/biology/Zoologie/Glomeris/Glomeris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glomeris (les gloméris en français) est un genre de myriapodes diplopodes de la famille des gloméridés. 
 Ils peuvent se rouler en boule et vivent dans des endroits humides tels que la litière de sols forestiers ou sous les écorces des troncs d'arbres dépérissants ou morts.
@@ -513,7 +525,9 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gloméris pouvant être rencontré en France (hors espèces cavernioles) sont : 
 Glomeris connexa
